--- a/Clinik/2. Терминоэлементы имен существительных/6. ТЭ,обозначающие жидкости, выделения и вещества организма/practice.xlsx
+++ b/Clinik/2. Терминоэлементы имен существительных/6. ТЭ,обозначающие жидкости, выделения и вещества организма/practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1060,22 +1060,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD2206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>174</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>174</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>174</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>174</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>174</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>174</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>174</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>174</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -2133,28 +2133,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
     </row>
-    <row r="58" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
     </row>
-    <row r="64" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
     </row>
-    <row r="241" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="6"/>
     </row>
   </sheetData>
